--- a/meta/proj_B-101-533__MetaData_2023-04-15.xlsx
+++ b/meta/proj_B-101-533__MetaData_2023-04-15.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/IGNIS/juno/work/bic/socci/Work/Users/PeledJ/ElkriefA/Proj_B-101-533/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A314CB-CDCB-CE42-8AD5-D0B1BE8D8337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FFB0BF-4600-BC4A-AE5E-0EB092CAF58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="52420" yWindow="-8740" windowWidth="25620" windowHeight="22320" xr2:uid="{EDF77AB5-CA95-1C4A-94FB-8885432FCC05}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="39">
   <si>
     <t>Phenotypes</t>
   </si>
@@ -141,6 +141,18 @@
   </si>
   <si>
     <t>please substract all of these from the analysis if there are &gt;50 cells with this phenotype</t>
+  </si>
+  <si>
+    <t>DAPI+</t>
+  </si>
+  <si>
+    <t>panCK+</t>
+  </si>
+  <si>
+    <t>CD3+/panCK+</t>
+  </si>
+  <si>
+    <t>t_ie</t>
   </si>
 </sst>
 </file>
@@ -527,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADF492F-4596-A340-8243-222099F24153}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -649,7 +661,7 @@
     </row>
     <row r="13" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>28</v>
@@ -657,10 +669,18 @@
     </row>
     <row r="14" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/meta/proj_B-101-533__MetaData_2023-04-15.xlsx
+++ b/meta/proj_B-101-533__MetaData_2023-04-15.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/IGNIS/juno/work/bic/socci/Work/Users/PeledJ/ElkriefA/Proj_B-101-533/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FFB0BF-4600-BC4A-AE5E-0EB092CAF58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8688AB1-3C71-BF43-AF54-AFD616D5F514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52420" yWindow="-8740" windowWidth="25620" windowHeight="22320" xr2:uid="{EDF77AB5-CA95-1C4A-94FB-8885432FCC05}"/>
+    <workbookView xWindow="36200" yWindow="6520" windowWidth="15000" windowHeight="15940" activeTab="1" xr2:uid="{EDF77AB5-CA95-1C4A-94FB-8885432FCC05}"/>
   </bookViews>
   <sheets>
     <sheet name="Phenotypes" sheetId="1" r:id="rId1"/>
@@ -541,7 +541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADF492F-4596-A340-8243-222099F24153}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -692,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0EA950A-93C5-A14B-B2E8-CCF5C5A4CE98}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="28" x14ac:dyDescent="0.3"/>
@@ -723,7 +723,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>27</v>
@@ -737,7 +737,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>27</v>
@@ -751,7 +751,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>29</v>
@@ -762,7 +762,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>29</v>
@@ -776,7 +776,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>27</v>
@@ -787,7 +787,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>27</v>
@@ -798,7 +798,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>29</v>
@@ -875,7 +875,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>27</v>
@@ -886,7 +886,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>29</v>
@@ -897,7 +897,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>27</v>
@@ -908,7 +908,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>29</v>
@@ -985,7 +985,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>27</v>
@@ -996,7 +996,7 @@
         <v>12</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>29</v>
@@ -1006,8 +1006,8 @@
       <c r="A27" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>30</v>
+      <c r="B27" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>29</v>
@@ -1017,8 +1017,8 @@
       <c r="A28" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>30</v>
+      <c r="B28" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>27</v>
@@ -1029,5 +1029,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>